--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AGUAS DE SUR S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>340</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>AGUAS DE SUR S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>340</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
+          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
+          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
+          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
+          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
+          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
+          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Tulio Humberto Barrientos Avendaño</t>
+          <t>Carlos Armando Loaiza Mansilla</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
+          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Carmen Gloria Rodríguez Poveda</t>
+          <t>Sabino Washington Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
+          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sabino Washington Chiguay Colivoro</t>
+          <t>Sabino Chiguay Catepillán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
+          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sabino Chiguay Catepillán</t>
+          <t>Tulio Humberto Barrientos Avendaño</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
+          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Carlos Armando Loaiza Mansilla</t>
+          <t>Carmen Gloria Rodríguez Poveda</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
+          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Gustavo Alexis Miranda Miranda</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
+          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Miguel Venancio Raín Raín</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Gustavo Alexis Miranda Miranda</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Miguel Venancio Raín Raín</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Luis Alberto Uribe Varas</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
+          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Cristóbal Blanco Pavez</t>
+          <t>Luis Alberto Uribe Varas</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
+          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Elvis Alberto Chiguay Colivoro</t>
+          <t>Cristóbal Blanco Pavez</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
+          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>José Alberto Videla Cofré</t>
+          <t>Elvis Alberto Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
+          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>José Alberto Videla Cofré</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
+          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Juan Alamiro Teca Cayún</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
+          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Juan Alamiro Teca Cayún</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
+          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>José Tadeo Subercaseaux Salas</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
+          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Tadeo Subercaseaux Salas</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
+          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Juan Andrés Nonque Llancalahuén</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
+          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Roman Javier Chiguay Tecay</t>
+          <t>Wenceslao Lucio Cuyul Cuyul</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
+          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Abel Alberto Ruiz Ruiz</t>
+          <t>Carlos Esteban Cardenas Veloso</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
+          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
+          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Rosamel Ulises Nitor Andrade</t>
+          <t>Eduardo Segundo Uribe Cuyul</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
+          <t>Granja Marina Cocauque PERT 98106026</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Karina Samanta Zarate Rojas</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Omar Baldovinos Uribe Cuyul</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
+          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Juvenal Mauricio Avendaño Abando</t>
+          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
+          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>Erik Adolfo Linzmayer Vera</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
+          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Fredy Eugenio Cuyul Colivoro</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
+          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Juan Andrés Nonque Llancalahuén</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Wenceslao Lucio Cuyul Cuyul</t>
+          <t>Roman Javier Chiguay Tecay</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
+          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Carlos Esteban Cardenas Veloso</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
+          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Rosamel Ulises Nitor Andrade</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Uribe Cuyul</t>
+          <t>Sigisfredo Raul Llegue Catipillan</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sigisfredo Raul Llegue Catipillan</t>
+          <t>Abel Alberto Ruiz Ruiz</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Erik Adolfo Linzmayer Vera</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
+          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Fredy Eugenio Cuyul Colivoro</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Granja Marina Cocauque PERT 98106026</t>
+          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Karina Samanta Zarate Rojas</t>
+          <t>Omar Baldovinos Uribe Cuyul</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
+          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Juvenal Mauricio Avendaño Abando</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
+          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
+          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
+          <t>Hugo Armando Avendaño Cárdenas</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
+          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
+          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Hugo Armando Avendaño Cárdenas</t>
+          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Aseo Industrial Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Aseo Industrial Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>AGUAS DE SUR S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>340</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AGUAS DE SUR S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>340</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
+          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
+          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
+          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
+          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
+          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
+          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Carlos Armando Loaiza Mansilla</t>
+          <t>Tulio Humberto Barrientos Avendaño</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
+          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Sabino Washington Chiguay Colivoro</t>
+          <t>Carmen Gloria Rodríguez Poveda</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
+          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sabino Chiguay Catepillán</t>
+          <t>Sabino Washington Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
+          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Tulio Humberto Barrientos Avendaño</t>
+          <t>Sabino Chiguay Catepillán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
+          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Carmen Gloria Rodríguez Poveda</t>
+          <t>Carlos Armando Loaiza Mansilla</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Gustavo Alexis Miranda Miranda</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Miguel Venancio Raín Raín</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
+          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Gustavo Alexis Miranda Miranda</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
+          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Miguel Venancio Raín Raín</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
+          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Luis Alberto Uribe Varas</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
+          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Luis Alberto Uribe Varas</t>
+          <t>Cristóbal Blanco Pavez</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
+          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Cristóbal Blanco Pavez</t>
+          <t>Elvis Alberto Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
+          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Elvis Alberto Chiguay Colivoro</t>
+          <t>José Alberto Videla Cofré</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
+          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>José Alberto Videla Cofré</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
+          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Juan Alamiro Teca Cayún</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
+          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Juan Alamiro Teca Cayún</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
+          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Tadeo Subercaseaux Salas</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>José Tadeo Subercaseaux Salas</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
+          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Juan Andrés Nonque Llancalahuén</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Wenceslao Lucio Cuyul Cuyul</t>
+          <t>Roman Javier Chiguay Tecay</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Carlos Esteban Cardenas Veloso</t>
+          <t>Abel Alberto Ruiz Ruiz</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
+          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
+          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Uribe Cuyul</t>
+          <t>Rosamel Ulises Nitor Andrade</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Granja Marina Cocauque PERT 98106026</t>
+          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Karina Samanta Zarate Rojas</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
+          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Omar Baldovinos Uribe Cuyul</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
+          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
+          <t>Juvenal Mauricio Avendaño Abando</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
+          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Erik Adolfo Linzmayer Vera</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
+          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Fredy Eugenio Cuyul Colivoro</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
+          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Juan Andrés Nonque Llancalahuén</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
+          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Roman Javier Chiguay Tecay</t>
+          <t>Wenceslao Lucio Cuyul Cuyul</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
+          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Carlos Esteban Cardenas Veloso</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
+          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Rosamel Ulises Nitor Andrade</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
+          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sigisfredo Raul Llegue Catipillan</t>
+          <t>Eduardo Segundo Uribe Cuyul</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Abel Alberto Ruiz Ruiz</t>
+          <t>Sigisfredo Raul Llegue Catipillan</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
+          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Erik Adolfo Linzmayer Vera</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
+          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Fredy Eugenio Cuyul Colivoro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
+          <t>Granja Marina Cocauque PERT 98106026</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Omar Baldovinos Uribe Cuyul</t>
+          <t>Karina Samanta Zarate Rojas</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Juvenal Mauricio Avendaño Abando</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
+          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
+          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Hugo Armando Avendaño Cárdenas</t>
+          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
+          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
+          <t>Hugo Armando Avendaño Cárdenas</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Aseo Industrial Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Aseo Industrial Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Salmones Cailín SpA.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SALMONES CAILÍN S. A.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Cailín SpA.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Salmones Cailín SpA.</t>
+          <t>Procesadora Cailín SpA</t>
         </is>
       </c>
       <c r="F233" t="n">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AGUAS DE SUR S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>340</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>AGUAS DE SUR S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>340</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
+          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
+          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
+          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
+          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
+          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
+          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Tulio Humberto Barrientos Avendaño</t>
+          <t>Carlos Armando Loaiza Mansilla</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
+          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Carmen Gloria Rodríguez Poveda</t>
+          <t>Sabino Washington Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
+          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sabino Washington Chiguay Colivoro</t>
+          <t>Sabino Chiguay Catepillán</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
+          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sabino Chiguay Catepillán</t>
+          <t>Tulio Humberto Barrientos Avendaño</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
+          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Carlos Armando Loaiza Mansilla</t>
+          <t>Carmen Gloria Rodríguez Poveda</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
+          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Gustavo Alexis Miranda Miranda</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
+          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Miguel Venancio Raín Raín</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Gustavo Alexis Miranda Miranda</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Miguel Venancio Raín Raín</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Luis Alberto Uribe Varas</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
+          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Cristóbal Blanco Pavez</t>
+          <t>Luis Alberto Uribe Varas</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
+          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Elvis Alberto Chiguay Colivoro</t>
+          <t>Cristóbal Blanco Pavez</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
+          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>José Alberto Videla Cofré</t>
+          <t>Elvis Alberto Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
+          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>José Alberto Videla Cofré</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
+          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Juan Alamiro Teca Cayún</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
+          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Juan Alamiro Teca Cayún</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
+          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>José Tadeo Subercaseaux Salas</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
+          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Tadeo Subercaseaux Salas</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
+          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Juan Andrés Nonque Llancalahuén</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
+          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Roman Javier Chiguay Tecay</t>
+          <t>Wenceslao Lucio Cuyul Cuyul</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
+          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Abel Alberto Ruiz Ruiz</t>
+          <t>Carlos Esteban Cardenas Veloso</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
+          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
+          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Rosamel Ulises Nitor Andrade</t>
+          <t>Eduardo Segundo Uribe Cuyul</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
+          <t>Granja Marina Cocauque PERT 98106026</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Karina Samanta Zarate Rojas</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Omar Baldovinos Uribe Cuyul</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
+          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Juvenal Mauricio Avendaño Abando</t>
+          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
+          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>Erik Adolfo Linzmayer Vera</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
+          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Fredy Eugenio Cuyul Colivoro</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
+          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Juan Andrés Nonque Llancalahuén</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Wenceslao Lucio Cuyul Cuyul</t>
+          <t>Roman Javier Chiguay Tecay</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
+          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Carlos Esteban Cardenas Veloso</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
+          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Rosamel Ulises Nitor Andrade</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Uribe Cuyul</t>
+          <t>Sigisfredo Raul Llegue Catipillan</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sigisfredo Raul Llegue Catipillan</t>
+          <t>Abel Alberto Ruiz Ruiz</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Erik Adolfo Linzmayer Vera</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
+          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Fredy Eugenio Cuyul Colivoro</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Granja Marina Cocauque PERT 98106026</t>
+          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Karina Samanta Zarate Rojas</t>
+          <t>Omar Baldovinos Uribe Cuyul</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
+          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Juvenal Mauricio Avendaño Abando</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
+          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
+          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
+          <t>Hugo Armando Avendaño Cárdenas</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
+          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
+          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Hugo Armando Avendaño Cárdenas</t>
+          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Aseo Industrial Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Aseo Industrial Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Nueva Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>NUEVA CERMAQ CHILE S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>NUEVA CERMAQ CHILE S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>NUEVA CERMAQ CHILE S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7943553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7955618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>AGUAS DE SUR S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>340</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR CANAL COLDITA, PIEDRA BLANCA, COMUNA DE QUELLON (SOL Nº 211106038)"</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA PAULA, X REGION" Nº de Ingreso a Trámite: 211106023 (Código del Centro: 102071)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AGUAS DE SUR S.A</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>340</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7149219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE MITÍLIDOS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Estero Cheter, Canal Chaiguao, X Región, Pert 211106026</t>
+          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231522&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Quellón Viejo, al Este de Punta Yenecura, X Región, Pert 211106025</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SALMONES PACIFIC STAR S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Canal Guamblad, Noroeste de Isla San Pedro (Sector 2), X Región, Pert 211106003</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Estero Oqueldan, al Sureste de Punta Tilin, X Región, Pert 211 106 028</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL GUAMBLAD, X REGION" Nº de Ingreso a Trámite: 211106007 (Código del Centro: 102063)</t>
+          <t>Modificación Proyecto Técnico C.E.S., Canal San Pedro, entre Isla Observatorio y Punta Boige, X Región, Pert 211106027</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>SALMONES PACIFIC STAR S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6243920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de Ensilaje, Centro Guamblad 1</t>
+          <t>Implementación de Sistema de Tratamiento de Mortalidad Mediante Sistema de ensilaje, Centro Huildad</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5213639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
+          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad Mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Quilen</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje en centro de Cultivo de salmones Punta Yelcho</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Sector Noreste Isla Chaullin (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
+          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro Cultivo Isla Chaullin Sector Norte (e-seia)</t>
+          <t>Centro Cultivo Salmones Chaullin Sur (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1313680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1781555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
+          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Carlos Armando Loaiza Mansilla</t>
+          <t>Tulio Humberto Barrientos Avendaño</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
+          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Sabino Washington Chiguay Colivoro</t>
+          <t>Carmen Gloria Rodríguez Poveda</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
+          <t>Cultivos Marinos Piedra Azul N° Pert 98106055</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sabino Chiguay Catepillán</t>
+          <t>Sabino Washington Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tulio Cultivo de Moluscos en Curanué Quellon (Solicitud N°97106042)</t>
+          <t>Cultivos Marinos Punta Piedra N° 98106097</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Tulio Humberto Barrientos Avendaño</t>
+          <t>Sabino Chiguay Catepillán</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Faro Yelcho Cultivo de Moluscos en Isla Cailin Chiloe (Solicitud N°200106014 y 200106015)</t>
+          <t>Cultivo de Mitilidos Ensenada Pilquín Comuna de Quellón Provincia de Chiloe X Region N°99106022</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Carmen Gloria Rodríguez Poveda</t>
+          <t>Carlos Armando Loaiza Mansilla</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N°99106005</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
+          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Gustavo Alexis Miranda Miranda</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Miguel Venancio Raín Raín</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106053</t>
+          <t>Punta Rocosa Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106054</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Gustavo Alexis Miranda Miranda</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Captación de Semillas de Mitílidos N° PERT 99106046</t>
+          <t>Marcelo Cultivo de Mitílidos en Yaldad Chiloé Pert N° 98106036</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>Miguel Venancio Raín Raín</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla Pert N° 98106007</t>
+          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Luis Alberto Uribe Varas</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Policultivo de Moluscos Filtradores y Gracilaria en el Estero Yaldad N° Pert 98106070</t>
+          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Luis Alberto Uribe Varas</t>
+          <t>Cristóbal Blanco Pavez</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Bivalvos Cocauque N° Pert 98106027</t>
+          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Cristóbal Blanco Pavez</t>
+          <t>Elvis Alberto Chiguay Colivoro</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en la Bahía de Yaldad (Solicitud N° 98106031)</t>
+          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Elvis Alberto Chiguay Colivoro</t>
+          <t>José Alberto Videla Cofré</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en la Bahía de Yaldad (Solicitud N° 98106037)</t>
+          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>José Alberto Videla Cofré</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Jotade Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106034</t>
+          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Juan Alamiro Teca Cayún</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nicole Cultivo de Mitílidos en Yaldad Chiloé Solicitud N° 98106045</t>
+          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Juan Alamiro Teca Cayún</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Betzabé Cultivo de Mitílidos en Yaldad Chiloé Pert 98106051</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su etapa de Engorda a partir del Estado de Semilla. N° de Solicitud 200106001</t>
+          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Salmones Cailín S.A.</t>
+          <t>José Tadeo Subercaseaux Salas</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Abalón Rojo en su etapa de Engorda a Partir del Estado de Semilla y Cultivo de Gracilara sp. Solicitud 98106022</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 200106002</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>José Tadeo Subercaseaux Salas</t>
+          <t>Salmones Cailín S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
+          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Juan Andrés Nonque Llancalahuén</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Wenceslao Lucio Cuyul Cuyul</t>
+          <t>Roman Javier Chiguay Tecay</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Carlos Esteban Cardenas Veloso</t>
+          <t>Abel Alberto Ruiz Ruiz</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
+          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>José Luis Vera Viveros</t>
+          <t>Rodrigo Hernando Canales Salgado</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
+          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Uribe Cuyul</t>
+          <t>Rosamel Ulises Nitor Andrade</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Juan Ignacio Colivoro Cheuquepil</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Granja Marina Cocauque PERT 98106026</t>
+          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Karina Samanta Zarate Rojas</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
+          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Omar Baldovinos Uribe Cuyul</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
+          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
+          <t>Juvenal Mauricio Avendaño Abando</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
+          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Erik Adolfo Linzmayer Vera</t>
+          <t>Pedro Pascual Colivoro Colivoro</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
+          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Fredy Eugenio Cuyul Colivoro</t>
+          <t>Moises Hermogenes Aguilar Colivoro</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 1 (Sol. N°200106034)</t>
+          <t>Captuno Cultivo de Moluscos en Yaldad Chiloé N° Solicitud 98106061</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Juan Andrés Nonque Llancalahuén</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° 99106045</t>
+          <t>Aguas Turbias Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106041)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Roman Javier Chiguay Tecay</t>
+          <t>Wenceslao Lucio Cuyul Cuyul</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Oqueldán 2 N° 200106035</t>
+          <t>Jairo Cultivo de Mitílidos en Yaldad Chiloé N°98106048</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Rodrigo Hernando Canales Salgado</t>
+          <t>Carlos Esteban Cardenas Veloso</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Calcao N° Solicitud 99106028</t>
+          <t>Eliud Cultivo de Mitílidos en Yaldad (Solicitud N°98106066)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Rosamel Ulises Nitor Andrade</t>
+          <t>José Luis Vera Viveros</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
+          <t>Cocauque Cultivo de Mitílidos en Yaldad Chiloé N° 98106039</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sigisfredo Raul Llegue Catipillan</t>
+          <t>Eduardo Segundo Uribe Cuyul</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106024</t>
+          <t>Cultivo de Mitílidos Ostreidos Pectínidos y Abalón Rojo en su Estado de Engorda a Partir del Estado de Semilla N° Pert 200106008</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Abel Alberto Ruiz Ruiz</t>
+          <t>Sigisfredo Raul Llegue Catipillan</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla N° Pert 99106006</t>
+          <t>Aguas Azules I Cultivo de Mitílidos en Yaldad Chiloé (Solicitud N°98106057)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Hector Donoso Chiguay Rain</t>
+          <t>Erik Adolfo Linzmayer Vera</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cultivo de Abalón Rojo en Isla Cailín Sector Yelcho II</t>
+          <t>Pichiguapi Cultivo de Mitílidos en Yaldad Chiloé (N° de Solicitud 98106052)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Fredy Eugenio Cuyul Colivoro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ventura Cultivo de Mitílidos en Yaldad Chiloé N° Sol. 98106038</t>
+          <t>Granja Marina Cocauque PERT 98106026</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Omar Baldovinos Uribe Cuyul</t>
+          <t>Karina Samanta Zarate Rojas</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Punta Pelú Cultivo de Moluscos en Isla Cailín Quellón Chiloé (Sol. N°200106009)</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir del Estado de Semilla PERT N°99106007</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Juvenal Mauricio Avendaño Abando</t>
+          <t>Hector Donoso Chiguay Rain</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Claudia Cultivo de Mitílidos en Yaldad Chiloé (Solicitudes N° 98106046; 99106055)</t>
+          <t>Quellón Viejo Cultivo de Moluscos en Quellón Chiloé (N° de Solicitud 97106053 - 97106054)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Pedro Pascual Colivoro Colivoro</t>
+          <t>MIGUEL FRANCISCO JARAMILLO SANZ</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Aarón Cultivo de Mitílidos en Yaldad Chiloé N° de Solicitud 98106024</t>
+          <t>Cultivo de Mitílidos en su Etapa de Engorda a Partir de Estado de Semilla PERT N° 99106014</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Moises Hermogenes Aguilar Colivoro</t>
+          <t>Juan Ignacio Colivoro Cheuquepil</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
+          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Hugo Armando Avendaño Cárdenas</t>
+          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos (Solicitud N° 200106039)</t>
+          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto de Cultivo de Mitílidos en la Bahía de Yaldad PERT 200106038</t>
+          <t>Cultivo de Mitílidos Ostreídos Pectínidos y Abalón Rojo en su Etapa de Engorda a Partir del Estado de Semilla (Solicitud N° 99106011)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Acuicultores y Trabajadores del Mar del Estero Yaldad</t>
+          <t>Hugo Armando Avendaño Cárdenas</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4531&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Aseo Industrial Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Administración Operación y Explotación de Vertedero Particular Comuna de Quellón</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Aseo Industrial Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Quellón.xlsx
+++ b/data/Quellón.xlsx
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
